--- a/DioDocsExcelTemplatePagenationRepeatType/Template_Pagination_RepeatType.xlsx
+++ b/DioDocsExcelTemplatePagenationRepeatType/Template_Pagination_RepeatType.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuni\Downloads\DioDocsExcelTemplatePagenationMode-master\DioDocsExcelTemplatePagenationMode-master\DioDocsExcelTemplatePagenationMode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuni\Desktop\DioDocsExcelTemplatePagenationRepeatType\DioDocsExcelTemplatePagenationRepeatType\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55492C-1B77-43D2-9DFD-95DBCCBC87D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA763C-2F3A-4BD7-8874-E1B3F45A233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{D8C1DA2E-CF5B-4A61-8779-F3B39E1F185E}"/>
   </bookViews>
@@ -499,53 +499,53 @@
     <xf numFmtId="5" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="5" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,12 +893,12 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -907,10 +907,10 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -919,10 +919,10 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -931,45 +931,45 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="16">
         <f ca="1">TODAY()</f>
-        <v>44966</v>
-      </c>
-      <c r="M5" s="25"/>
+        <v>44967</v>
+      </c>
+      <c r="M5" s="16"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
@@ -1116,46 +1116,46 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
@@ -1176,38 +1176,38 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21" t="s">
+      <c r="J18" s="26"/>
+      <c r="K18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1224,12 +1224,12 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="3"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -1240,12 +1240,12 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="3"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -1256,12 +1256,12 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="3"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -1272,12 +1272,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="3"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -1288,12 +1288,12 @@
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="3"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -1304,12 +1304,12 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="3"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -1320,12 +1320,12 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="3"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -1336,12 +1336,12 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="3"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -1352,12 +1352,12 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="3"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -1420,50 +1420,50 @@
     </row>
     <row r="32" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B32" s="2"/>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B33" s="2"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="16"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B34" s="2"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1504,50 +1504,50 @@
     </row>
     <row r="37" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B37" s="2"/>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="21"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B38" s="2"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="21"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.8">
       <c r="B39" s="2"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="19"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -1588,21 +1588,20 @@
     <row r="54" ht="16.2" customHeight="1" x14ac:dyDescent="0.8"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="F2:I4"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="C32:L34"/>
     <mergeCell ref="C37:L39"/>
     <mergeCell ref="B16:E16"/>
@@ -1619,20 +1618,21 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="F2:I4"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
